--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="3195" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="3195" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -209,12 +209,6 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>brokerregister07@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister08@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>unmatched016@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>crcanada1483@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister09@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister09@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -747,10 +747,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>48</v>
@@ -1023,10 +1023,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4">
         <v>98819</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4">
         <v>98820</v>
@@ -1518,10 +1518,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>48</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\Loadpay\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\shantesh\SeleniumAutomation-master-5866fc7e41158ac9ec1ba4c09646fb88bacbd4bb\SeleniumAutomation-master\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13275" windowHeight="3195" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="2895" tabRatio="500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t>Username</t>
   </si>
@@ -209,22 +209,22 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>unmatched016@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched017@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brcanada1794@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>crcanada1483@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brokerregister09@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister09@loadpaytest.truckstop.com</t>
+    <t>brokerregister12@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister12@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brcanada1771@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>crcanada14447@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched028@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched029@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1023,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
+        <v>6542839</v>
+      </c>
+      <c r="B2" s="4">
         <v>6547819</v>
-      </c>
-      <c r="B2" s="4">
-        <v>6547817</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1230,10 +1230,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1283,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1315,26 +1315,12 @@
         <v>43</v>
       </c>
       <c r="B2" s="4">
-        <v>1023</v>
+        <v>112334</v>
       </c>
       <c r="C2" s="4">
-        <v>1023</v>
+        <v>112334</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1024</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1024</v>
-      </c>
-      <c r="D3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1348,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1380,13 +1366,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4">
-        <v>98819</v>
+        <v>981191</v>
       </c>
       <c r="C2" s="4">
-        <v>98819</v>
+        <v>981191</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1400,13 +1386,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4">
-        <v>98820</v>
+        <v>981192</v>
       </c>
       <c r="C3" s="4">
-        <v>98820</v>
+        <v>981192</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\shantesh\SeleniumAutomation-master-5866fc7e41158ac9ec1ba4c09646fb88bacbd4bb\SeleniumAutomation-master\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\Loadpay\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="2895" tabRatio="500" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="2895" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -215,16 +215,16 @@
     <t>carrierregister12@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>brcanada1771@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>crcanada14447@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched028@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched029@loadpaytest.truckstop.com</t>
+    <t>unmatched047@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched048@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brcanada1775@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>crcanada14449@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -747,10 +747,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>48</v>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>6542839</v>
+        <v>6542836</v>
       </c>
       <c r="B2" s="4">
-        <v>6547819</v>
+        <v>6547879</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="4">
-        <v>112334</v>
+        <v>112341</v>
       </c>
       <c r="C2" s="4">
-        <v>112334</v>
+        <v>112341</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1334,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4">
-        <v>981191</v>
+        <v>981196</v>
       </c>
       <c r="C2" s="4">
-        <v>981191</v>
+        <v>981196</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4">
-        <v>981192</v>
+        <v>981197</v>
       </c>
       <c r="C3" s="4">
-        <v>981192</v>
+        <v>981197</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1504,10 +1504,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>48</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\Loadpay\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sprints\KSprint\28-05-2018\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="2895" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="CarrierLoginData" sheetId="5" r:id="rId4"/>
     <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId5"/>
     <sheet name="CarrierRegisterData" sheetId="6" r:id="rId6"/>
-    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId7"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId8"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId9"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId10"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId11"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId12"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId13"/>
+    <sheet name="CarrierBankingData" sheetId="14" r:id="rId7"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId8"/>
+    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId9"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId10"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId11"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId12"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId13"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId14"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Username</t>
   </si>
@@ -131,9 +133,6 @@
     <t>shantesh.hulagabali@gmail.com</t>
   </si>
   <si>
-    <t>Veeresh@123</t>
-  </si>
-  <si>
     <t>carrier</t>
   </si>
   <si>
@@ -209,22 +208,43 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>brokerregister12@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister12@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched047@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched048@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brcanada1775@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>crcanada14449@loadpaytest.truckstop.com</t>
+    <t>brcanada1794@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>crcanada1483@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched01600@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched01700@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister09133@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister09010@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Routing Number</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Confirm AccountNumber</t>
+  </si>
+  <si>
+    <t>Shantesh@123</t>
+  </si>
+  <si>
+    <t>BrokerBankAccount</t>
+  </si>
+  <si>
+    <t>CarrierBankAccount</t>
   </si>
 </sst>
 </file>
@@ -321,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -335,6 +355,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,7 +645,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,7 +667,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -655,9 +681,246 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4">
+        <v>98869</v>
+      </c>
+      <c r="C2" s="4">
+        <v>98869</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="10">
+        <v>295676691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <v>988266</v>
+      </c>
+      <c r="C3" s="4">
+        <v>988266</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="10">
+        <v>295686691</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="11">
+        <v>374657000000</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="4">
+        <v>102101645</v>
+      </c>
+      <c r="T2" s="11">
+        <v>456457000000</v>
+      </c>
+      <c r="U2" s="11">
+        <v>456457000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -690,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -705,10 +968,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -741,25 +1004,25 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -768,10 +1031,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -810,12 +1073,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -829,15 +1092,15 @@
         <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -885,7 +1148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -921,10 +1184,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1023,10 +1286,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1080,7 +1343,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1362,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1126,18 +1389,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>6542836</v>
+        <v>6547819</v>
       </c>
       <c r="B2" s="4">
-        <v>6547879</v>
+        <v>6547817</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1414,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1224,16 +1487,16 @@
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1285,8 +1548,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13">
+        <v>101000187</v>
+      </c>
+      <c r="C2" s="13">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="13">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="13">
+        <v>101200453</v>
+      </c>
+      <c r="C2" s="13">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="13">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1301,26 +1664,40 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>112341</v>
+        <v>11144</v>
       </c>
       <c r="C2" s="4">
-        <v>112341</v>
+        <v>11144</v>
       </c>
       <c r="D2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1224</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1224</v>
+      </c>
+      <c r="D3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1328,241 +1705,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4">
-        <v>981196</v>
-      </c>
-      <c r="C2" s="4">
-        <v>981196</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="10">
-        <v>295676691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4">
-        <v>981197</v>
-      </c>
-      <c r="C3" s="4">
-        <v>981197</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="10">
-        <v>295686691</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="11">
-        <v>374657000000</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="4">
-        <v>102101645</v>
-      </c>
-      <c r="T2" s="11">
-        <v>456457000000</v>
-      </c>
-      <c r="U2" s="11">
-        <v>456457000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sprints\KSprint\28-05-2018\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>Username</t>
   </si>
@@ -208,18 +208,6 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>brcanada1794@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>crcanada1483@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched01600@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched01700@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>brokerregister09133@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -245,6 +233,18 @@
   </si>
   <si>
     <t>CarrierBankAccount</t>
+  </si>
+  <si>
+    <t>brcanada888@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>crcanada888@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched9100@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched01100@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -715,13 +715,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4">
-        <v>98869</v>
+        <v>98800</v>
       </c>
       <c r="C2" s="4">
-        <v>98869</v>
+        <v>98800</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4">
-        <v>988266</v>
+        <v>9813</v>
       </c>
       <c r="C3" s="4">
-        <v>988266</v>
+        <v>9813</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -853,10 +853,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1010,10 +1010,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1286,10 +1286,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1493,10 +1493,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1548,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1562,21 +1562,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="13">
         <v>101000187</v>
@@ -1612,21 +1612,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="13">
         <v>101200453</v>
@@ -1646,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1678,26 +1678,12 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>11144</v>
+        <v>18442</v>
       </c>
       <c r="C2" s="4">
-        <v>11144</v>
+        <v>18442</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1224</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1224</v>
-      </c>
-      <c r="D3" s="4">
         <v>10</v>
       </c>
     </row>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\Loadpay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="CarrierLoginData" sheetId="5" r:id="rId4"/>
     <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId5"/>
     <sheet name="CarrierRegisterData" sheetId="6" r:id="rId6"/>
-    <sheet name="CarrierBankingData" sheetId="14" r:id="rId7"/>
-    <sheet name="BrokerBankingData" sheetId="15" r:id="rId8"/>
-    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId9"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId10"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId11"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId12"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId13"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId14"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId15"/>
+    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId7"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId8"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId9"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId10"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId11"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId12"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId13"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId14"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="71">
   <si>
     <t>Username</t>
   </si>
@@ -208,43 +209,52 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>brokerregister09133@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister09010@loadpaytest.truckstop.com</t>
+    <t>carrierregister23@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Shantesh@123</t>
+  </si>
+  <si>
+    <t>crcanada1412@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brcanada1390@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister15@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Anilkumar</t>
+  </si>
+  <si>
+    <t>EnterDOTNnumber</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>800832</t>
+  </si>
+  <si>
+    <t>Account Name</t>
   </si>
   <si>
     <t>Routing Number</t>
   </si>
   <si>
-    <t>Account Name</t>
-  </si>
-  <si>
     <t>Account Number</t>
   </si>
   <si>
     <t>Confirm AccountNumber</t>
   </si>
   <si>
-    <t>Shantesh@123</t>
-  </si>
-  <si>
     <t>BrokerBankAccount</t>
   </si>
   <si>
     <t>CarrierBankAccount</t>
   </si>
   <si>
-    <t>brcanada888@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>crcanada888@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched9100@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched01100@loadpaytest.truckstop.com</t>
+    <t>unmatched74@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -356,10 +366,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,7 +655,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -681,93 +691,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="4">
-        <v>98800</v>
-      </c>
-      <c r="C2" s="4">
-        <v>98800</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="10">
-        <v>295676691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4">
-        <v>9813</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9813</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="10">
-        <v>295686691</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,10 +780,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -916,7 +843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1010,10 +937,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1073,12 +1000,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4">
+        <v>101200453</v>
+      </c>
+      <c r="C2" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4">
+        <v>101000187</v>
+      </c>
+      <c r="C2" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1148,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1202,9 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1286,10 +1309,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1343,7 +1366,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1401,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1420,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>6547819</v>
+        <v>6542988</v>
       </c>
       <c r="B2" s="4">
-        <v>6547817</v>
+        <v>6542989</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1437,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1493,10 +1516,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1546,110 +1569,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="13">
-        <v>101000187</v>
-      </c>
-      <c r="C2" s="13">
-        <v>123456789</v>
-      </c>
-      <c r="D2" s="13">
-        <v>123456789</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="13">
-        <v>101200453</v>
-      </c>
-      <c r="C2" s="13">
-        <v>123456789</v>
-      </c>
-      <c r="D2" s="13">
-        <v>123456789</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1678,12 +1601,26 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>18442</v>
+        <v>88646</v>
       </c>
       <c r="C2" s="4">
-        <v>18442</v>
+        <v>88646</v>
       </c>
       <c r="D2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
+        <v>88647</v>
+      </c>
+      <c r="C3" s="4">
+        <v>88647</v>
+      </c>
+      <c r="D3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1691,4 +1628,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1004142</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1004142</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="10">
+        <v>295676692</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>Username</t>
   </si>
@@ -254,7 +254,10 @@
     <t>CarrierBankAccount</t>
   </si>
   <si>
-    <t>unmatched74@loadpaytest.truckstop.com</t>
+    <t>unmatched76@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched77@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1601,10 +1604,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>88646</v>
+        <v>88648</v>
       </c>
       <c r="C2" s="4">
-        <v>88646</v>
+        <v>88648</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1615,10 +1618,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>88647</v>
+        <v>88649</v>
       </c>
       <c r="C3" s="4">
-        <v>88647</v>
+        <v>88649</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1669,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1706,10 +1709,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="4">
-        <v>1004142</v>
+        <v>1004143</v>
       </c>
       <c r="C2" s="4">
-        <v>1004142</v>
+        <v>1004143</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1718,12 +1721,33 @@
         <v>40</v>
       </c>
       <c r="F2" s="10">
+        <v>295676692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1004144</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1004144</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="10">
         <v>295676692</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\Loadpay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -254,10 +254,10 @@
     <t>CarrierBankAccount</t>
   </si>
   <si>
-    <t>unmatched76@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched77@loadpaytest.truckstop.com</t>
+    <t>unmatched78@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched79@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1604,10 +1604,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>88648</v>
+        <v>88651</v>
       </c>
       <c r="C2" s="4">
-        <v>88648</v>
+        <v>88651</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1618,10 +1618,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>88649</v>
+        <v>88652</v>
       </c>
       <c r="C3" s="4">
-        <v>88649</v>
+        <v>88652</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1709,10 +1709,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="4">
-        <v>1004143</v>
+        <v>1004145</v>
       </c>
       <c r="C2" s="4">
-        <v>1004143</v>
+        <v>1004145</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1729,10 +1729,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="4">
-        <v>1004144</v>
+        <v>1004146</v>
       </c>
       <c r="C3" s="4">
-        <v>1004144</v>
+        <v>1004146</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>carrierregister23@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Shantesh@123</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>brcanada1390@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>brokerregister15@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Anilkumar</t>
   </si>
   <si>
@@ -254,10 +248,16 @@
     <t>CarrierBankAccount</t>
   </si>
   <si>
-    <t>unmatched78@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched79@loadpaytest.truckstop.com</t>
+    <t>carrierregister1123@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister15112@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched209@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched210@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +783,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -940,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1021,21 +1021,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4">
         <v>101200453</v>
@@ -1070,21 +1070,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4">
         <v>101000187</v>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1312,10 +1314,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1440,7 +1442,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,10 +1521,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1604,10 +1606,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>88651</v>
+        <v>8776</v>
       </c>
       <c r="C2" s="4">
-        <v>88651</v>
+        <v>8776</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1618,10 +1620,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>88652</v>
+        <v>86665</v>
       </c>
       <c r="C3" s="4">
-        <v>88652</v>
+        <v>86665</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1651,18 +1653,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1674,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1709,10 +1711,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="4">
-        <v>1004145</v>
+        <v>10321</v>
       </c>
       <c r="C2" s="4">
-        <v>1004145</v>
+        <v>10321</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1729,10 +1731,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="4">
-        <v>1004146</v>
+        <v>124121</v>
       </c>
       <c r="C3" s="4">
-        <v>1004146</v>
+        <v>124121</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId10"/>
     <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId11"/>
     <sheet name="BrokerBankingData" sheetId="15" r:id="rId12"/>
-    <sheet name="CarrierBankingData" sheetId="16" r:id="rId13"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId14"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId15"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId16"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId13"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId14"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId15"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId16"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -209,6 +210,9 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
+    <t>carrierregister23@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
     <t>Shantesh@123</t>
   </si>
   <si>
@@ -218,6 +222,9 @@
     <t>brcanada1390@loadpaytest.truckstop.com</t>
   </si>
   <si>
+    <t>brokerregister15@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
     <t>Anilkumar</t>
   </si>
   <si>
@@ -248,16 +255,28 @@
     <t>CarrierBankAccount</t>
   </si>
   <si>
-    <t>carrierregister1123@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brokerregister15112@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched209@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched210@loadpaytest.truckstop.com</t>
+    <t>unmatched78@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched79@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Carrier Email</t>
+  </si>
+  <si>
+    <t>Carrier Password</t>
+  </si>
+  <si>
+    <t>Search Text</t>
+  </si>
+  <si>
+    <t>qarunscopecarrier1@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Password@1</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
   </si>
 </sst>
 </file>
@@ -680,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +802,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -940,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1008,7 +1027,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,21 +1040,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
         <v>101200453</v>
@@ -1053,6 +1072,48 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1070,21 +1131,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4">
         <v>101000187</v>
@@ -1101,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1136,7 +1197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1176,7 +1237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1193,7 +1254,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1230,9 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1314,10 +1373,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1442,7 +1501,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1521,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1606,10 +1665,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>8776</v>
+        <v>88651</v>
       </c>
       <c r="C2" s="4">
-        <v>8776</v>
+        <v>88651</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1620,10 +1679,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>86665</v>
+        <v>88652</v>
       </c>
       <c r="C3" s="4">
-        <v>86665</v>
+        <v>88652</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1653,18 +1712,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1676,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1711,10 +1770,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="4">
-        <v>10321</v>
+        <v>1004145</v>
       </c>
       <c r="C2" s="4">
-        <v>10321</v>
+        <v>1004145</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1731,10 +1790,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="4">
-        <v>124121</v>
+        <v>1004146</v>
       </c>
       <c r="C3" s="4">
-        <v>124121</v>
+        <v>1004146</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Project\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -210,21 +210,9 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>carrierregister23@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Shantesh@123</t>
   </si>
   <si>
-    <t>crcanada1412@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brcanada1390@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brokerregister15@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Anilkumar</t>
   </si>
   <si>
@@ -255,12 +243,6 @@
     <t>CarrierBankAccount</t>
   </si>
   <si>
-    <t>unmatched78@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched79@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Carrier Email</t>
   </si>
   <si>
@@ -277,6 +259,24 @@
   </si>
   <si>
     <t>Buffalo</t>
+  </si>
+  <si>
+    <t>brokerregister16@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister25@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched97@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched98@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brcanada1395@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>crcanada1416@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,10 +802,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1040,21 +1040,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4">
         <v>101200453</v>
@@ -1075,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1088,24 +1088,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1131,21 +1131,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4">
         <v>101000187</v>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1373,10 +1375,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1501,7 +1503,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1580,10 +1582,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1633,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1665,26 +1667,12 @@
         <v>42</v>
       </c>
       <c r="B2" s="4">
-        <v>88651</v>
+        <v>88658</v>
       </c>
       <c r="C2" s="4">
-        <v>88651</v>
+        <v>88658</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4">
-        <v>88652</v>
-      </c>
-      <c r="C3" s="4">
-        <v>88652</v>
-      </c>
-      <c r="D3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1712,18 +1700,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1767,13 +1755,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4">
-        <v>1004145</v>
+        <v>10041596</v>
       </c>
       <c r="C2" s="4">
-        <v>1004145</v>
+        <v>10041596</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1787,13 +1775,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4">
-        <v>1004146</v>
+        <v>10041597</v>
       </c>
       <c r="C3" s="4">
-        <v>1004146</v>
+        <v>10041597</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
   <si>
     <t>Username</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>shantesh.hulagabali@gmail.com</t>
-  </si>
-  <si>
     <t>carrier</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Cgihrms@1234</t>
   </si>
   <si>
-    <t>Shantesh@123</t>
-  </si>
-  <si>
     <t>Anilkumar</t>
   </si>
   <si>
@@ -277,6 +271,9 @@
   </si>
   <si>
     <t>crcanada1416@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>cadregbroker@mailinator.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -676,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,17 +693,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -745,10 +738,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -760,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -802,19 +795,19 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -823,10 +816,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -902,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -917,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -953,25 +946,25 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -980,10 +973,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -1040,21 +1033,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4">
         <v>101200453</v>
@@ -1088,24 +1081,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1131,21 +1124,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4">
         <v>101000187</v>
@@ -1166,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1181,15 +1174,15 @@
         <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1273,10 +1266,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1432,7 +1425,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1444,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1478,10 +1471,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,16 +1569,16 @@
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1653,18 +1646,18 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
         <v>88658</v>
@@ -1700,18 +1693,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1735,27 +1728,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4">
         <v>10041596</v>
@@ -1767,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="10">
         <v>295676692</v>
@@ -1775,7 +1768,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4">
         <v>10041597</v>
@@ -1787,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="10">
         <v>295676692</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Project\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\shantesh\SeleniumAutomation-master\LoadPay\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="2220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>jasonglaser@truckstop.com</t>
   </si>
   <si>
-    <t>aaaaaaa</t>
-  </si>
-  <si>
     <t>w2k/anilkumar</t>
   </si>
   <si>
@@ -273,7 +270,10 @@
     <t>crcanada1416@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>cadregbroker@mailinator.truckstop.com</t>
+    <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrier123@@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -673,13 +673,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="41.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,10 +693,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -738,10 +738,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -753,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -795,19 +795,19 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -816,10 +816,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -895,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -910,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -946,25 +946,25 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -973,10 +973,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -1033,21 +1033,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4">
         <v>101200453</v>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1081,24 +1081,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1124,21 +1124,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4">
         <v>101000187</v>
@@ -1160,13 +1160,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1424,14 +1424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1444,10 +1444,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1471,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,10 +1575,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>88658</v>
@@ -1693,18 +1693,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1728,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>30</v>
@@ -1740,15 +1740,15 @@
         <v>32</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4">
         <v>10041596</v>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="10">
         <v>295676692</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4">
         <v>10041597</v>
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="10">
         <v>295676692</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\shantesh\SeleniumAutomation-master\LoadPay\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Project\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>Username</t>
   </si>
@@ -165,9 +165,6 @@
     <t>EIN</t>
   </si>
   <si>
-    <t>avatarqacarrier@mailinator.truckstop.com</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -258,12 +255,6 @@
     <t>carrierregister25@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>unmatched97@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched98@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>brcanada1395@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -274,6 +265,12 @@
   </si>
   <si>
     <t>carrier123@@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched99@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched90@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -693,10 +690,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -738,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -753,10 +750,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -795,19 +792,19 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -816,10 +813,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -895,10 +892,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -910,10 +907,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -946,25 +943,25 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -973,10 +970,10 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>24</v>
@@ -1033,21 +1030,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4">
         <v>101200453</v>
@@ -1081,24 +1078,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1124,21 +1121,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4">
         <v>101000187</v>
@@ -1182,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1244,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1282,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1368,10 +1365,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1424,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1444,10 +1441,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1468,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,10 +1572,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1657,13 +1654,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4">
-        <v>88658</v>
+        <v>88660</v>
       </c>
       <c r="C2" s="4">
-        <v>88658</v>
+        <v>88660</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1693,18 +1690,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1716,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1748,13 +1745,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4">
-        <v>10041596</v>
+        <v>10041598</v>
       </c>
       <c r="C2" s="4">
-        <v>10041596</v>
+        <v>10041598</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1763,18 +1760,18 @@
         <v>38</v>
       </c>
       <c r="F2" s="10">
-        <v>295676692</v>
+        <v>295676689</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4">
-        <v>10041597</v>
+        <v>10041599</v>
       </c>
       <c r="C3" s="4">
-        <v>10041597</v>
+        <v>10041599</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1783,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="10">
-        <v>295676692</v>
+        <v>295676689</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t>Username</t>
   </si>
@@ -237,18 +237,9 @@
     <t>Carrier Password</t>
   </si>
   <si>
-    <t>Search Text</t>
-  </si>
-  <si>
-    <t>qarunscopecarrier1@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Password@1</t>
   </si>
   <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
     <t>brokerregister16@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -271,6 +262,30 @@
   </si>
   <si>
     <t>unmatched90@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Search Payer</t>
+  </si>
+  <si>
+    <t>Search LoadID</t>
+  </si>
+  <si>
+    <t>Search Status</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Search Amount</t>
+  </si>
+  <si>
+    <t>Password@2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrierregisterstage1@loadpaytest.truckstop.com </t>
+  </si>
+  <si>
+    <t>CVK Trucking</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -386,6 +401,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,10 +708,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +810,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -949,10 +967,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -1063,20 +1081,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -1084,22 +1105,45 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123.45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4">
+        <v>61420181</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:carrierregisterstage1@loadpaytest.truckstop.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="mailto:Password@2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1179,7 +1223,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1365,10 +1409,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1441,10 +1485,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1616,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1654,7 +1698,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4">
         <v>88660</v>
@@ -1713,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1745,7 +1789,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4">
         <v>10041598</v>
@@ -1765,7 +1809,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4">
         <v>10041599</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Project\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>Username</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>CVK Trucking</t>
+  </si>
+  <si>
+    <t>carrier123@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1465,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1485,13 +1488,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,30 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\shantesh\SeleniumAutomation-master\LoadPay\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
     <sheet name="outlookLoginData" sheetId="8" r:id="rId2"/>
     <sheet name="BrokerRegister" sheetId="4" r:id="rId3"/>
     <sheet name="CarrierLoginData" sheetId="5" r:id="rId4"/>
-    <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId5"/>
-    <sheet name="CarrierRegisterData" sheetId="6" r:id="rId6"/>
-    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId7"/>
-    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId8"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId9"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId10"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId11"/>
-    <sheet name="BrokerBankingData" sheetId="15" r:id="rId12"/>
-    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId13"/>
-    <sheet name="CarrierBankingData" sheetId="16" r:id="rId14"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId15"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId16"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId17"/>
+    <sheet name="CarrierlockedaccountAdminUnlock" sheetId="19" r:id="rId5"/>
+    <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId6"/>
+    <sheet name="CarrierRegisterData" sheetId="6" r:id="rId7"/>
+    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId8"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId9"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId10"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId11"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId12"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId13"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId14"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId15"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId16"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId17"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
   <si>
     <t>Username</t>
   </si>
@@ -243,9 +244,6 @@
     <t>brokerregister16@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>carrierregister25@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>brcanada1395@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -288,7 +286,16 @@
     <t>CVK Trucking</t>
   </si>
   <si>
-    <t>carrier123@loadpaytest.truckstop.com</t>
+    <t>carrierregister30@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister29@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Wrong Password</t>
+  </si>
+  <si>
+    <t>Calpion@123</t>
   </si>
 </sst>
 </file>
@@ -711,7 +718,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -723,6 +730,89 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10041598</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10041598</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10">
+        <v>295676689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10041599</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10041599</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10">
+        <v>295676689</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -813,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -876,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -970,10 +1060,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -1033,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1082,12 +1172,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1108,33 +1198,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -1150,12 +1240,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1199,12 +1289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1274,7 +1364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1329,7 +1419,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1468,14 +1558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1491,18 +1581,59 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1538,11 +1669,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1622,10 +1753,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1673,7 +1804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1704,7 +1835,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4">
         <v>88660</v>
@@ -1722,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1757,87 +1888,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10041598</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10041598</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="10">
-        <v>295676689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10041599</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10041599</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="10">
-        <v>295676689</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\shantesh\SeleniumAutomation-master\LoadPay\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay\SeleniumAutomation\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,21 @@
     <sheet name="BrokerRegister" sheetId="4" r:id="rId3"/>
     <sheet name="CarrierLoginData" sheetId="5" r:id="rId4"/>
     <sheet name="CarrierlockedaccountAdminUnlock" sheetId="19" r:id="rId5"/>
-    <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId6"/>
-    <sheet name="CarrierRegisterData" sheetId="6" r:id="rId7"/>
-    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId8"/>
-    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId9"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId10"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId11"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId12"/>
-    <sheet name="BrokerBankingData" sheetId="15" r:id="rId13"/>
-    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId14"/>
-    <sheet name="CarrierBankingData" sheetId="16" r:id="rId15"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId16"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId17"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId18"/>
+    <sheet name="carrierparentchilddata" sheetId="20" r:id="rId6"/>
+    <sheet name="carrierresetpassworddata" sheetId="21" r:id="rId7"/>
+    <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId8"/>
+    <sheet name="CarrierRegisterData" sheetId="6" r:id="rId9"/>
+    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId10"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId11"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId12"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId13"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId14"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId15"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId16"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId17"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId18"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId19"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>Username</t>
   </si>
@@ -253,9 +255,6 @@
     <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>carrier123@@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>unmatched99@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -296,6 +295,39 @@
   </si>
   <si>
     <t>Calpion@123</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>NewEmailID</t>
+  </si>
+  <si>
+    <t>LoadPay</t>
+  </si>
+  <si>
+    <t>carrierregisterstage1@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>avatarcarrier1960@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>ForceNew Password</t>
+  </si>
+  <si>
+    <t>ForceConfirm Password</t>
+  </si>
+  <si>
+    <t>Abco@123</t>
+  </si>
+  <si>
+    <t>Carrier@0912</t>
   </si>
 </sst>
 </file>
@@ -731,6 +763,110 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4">
+        <v>81360</v>
+      </c>
+      <c r="C2" s="4">
+        <v>81360</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4">
+        <v>80082</v>
+      </c>
+      <c r="C3" s="4">
+        <v>80082</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,7 +901,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4">
         <v>10041598</v>
@@ -785,7 +921,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4">
         <v>10041599</v>
@@ -812,7 +948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -966,7 +1102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1123,7 +1259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1172,7 +1308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1198,33 +1334,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -1240,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1289,7 +1425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1324,7 +1460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1361,18 +1497,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1410,6 +1534,18 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1578,7 +1714,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1593,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1611,18 +1747,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1634,6 +1770,114 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1669,7 +1913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1753,10 +1997,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1802,90 +2046,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4">
-        <v>88660</v>
-      </c>
-      <c r="C2" s="4">
-        <v>88660</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -309,9 +309,6 @@
     <t>carrierregisterstage1@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>avatarcarrier1960@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>New Password</t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>Carrier@0912</t>
+  </si>
+  <si>
+    <t>carrier123@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>avatarcarrier1965@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -765,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -792,7 +795,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4">
         <v>81360</v>
@@ -806,7 +809,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4">
         <v>80082</v>
@@ -820,8 +823,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1695,7 +1698,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1714,13 +1717,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1773,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1817,7 @@
         <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1840,30 +1847,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -321,16 +321,16 @@
     <t>ForceConfirm Password</t>
   </si>
   <si>
-    <t>Abco@123</t>
-  </si>
-  <si>
-    <t>Carrier@0912</t>
-  </si>
-  <si>
     <t>carrier123@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>avatarcarrier1965@loadpaytest.truckstop.com</t>
+    <t>avatarcarrier1985@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Abch@123</t>
+  </si>
+  <si>
+    <t>Carrier@0944</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -795,13 +795,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4">
-        <v>81360</v>
+        <v>813601</v>
       </c>
       <c r="C2" s="4">
-        <v>81360</v>
+        <v>813601</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4">
-        <v>80082</v>
+        <v>800822</v>
       </c>
       <c r="C3" s="4">
-        <v>80082</v>
+        <v>800822</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -873,7 +873,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -1781,7 +1781,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1817,7 @@
         <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1861,23 +1861,23 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay\SeleniumAutomation\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>Username</t>
   </si>
@@ -288,9 +288,6 @@
     <t>carrierregister30@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>carrierregister29@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Wrong Password</t>
   </si>
   <si>
@@ -321,16 +318,16 @@
     <t>ForceConfirm Password</t>
   </si>
   <si>
-    <t>carrier123@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>avatarcarrier1985@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>Abch@123</t>
-  </si>
-  <si>
-    <t>Carrier@0944</t>
+    <t>carrier44@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrier81@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Abcta@123</t>
+  </si>
+  <si>
+    <t>Carrier13@0909</t>
   </si>
 </sst>
 </file>
@@ -769,7 +766,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -795,13 +792,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4">
-        <v>813601</v>
+        <v>82098</v>
       </c>
       <c r="C2" s="4">
-        <v>813601</v>
+        <v>82098</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -809,13 +806,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4">
-        <v>800822</v>
+        <v>88574</v>
       </c>
       <c r="C3" s="4">
-        <v>800822</v>
+        <v>88574</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1698,7 +1695,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -1737,7 +1734,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1754,23 +1751,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1800,10 +1799,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,13 +1810,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1847,30 +1846,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,17 @@
     <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId8"/>
     <sheet name="CarrierRegisterData" sheetId="6" r:id="rId9"/>
     <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId10"/>
-    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId11"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId12"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId13"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId14"/>
-    <sheet name="BrokerBankingData" sheetId="15" r:id="rId15"/>
-    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId16"/>
-    <sheet name="CarrierBankingData" sheetId="16" r:id="rId17"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId18"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId19"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId20"/>
+    <sheet name="BulkUploadPayments" sheetId="22" r:id="rId11"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId12"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId13"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId14"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId15"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId16"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId17"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId18"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId19"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId20"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -321,13 +322,16 @@
     <t>carrier44@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>carrier81@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>Abcta@123</t>
-  </si>
-  <si>
-    <t>Carrier13@0909</t>
+    <t>SearchAmount</t>
+  </si>
+  <si>
+    <t>carrier82@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Abctb@123</t>
+  </si>
+  <si>
+    <t>Carrier113@0909</t>
   </si>
 </sst>
 </file>
@@ -765,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -792,13 +796,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4">
-        <v>82098</v>
+        <v>82112</v>
       </c>
       <c r="C2" s="4">
-        <v>82098</v>
+        <v>82112</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -806,13 +810,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4">
-        <v>88574</v>
+        <v>880909</v>
       </c>
       <c r="C3" s="4">
-        <v>88574</v>
+        <v>880909</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -829,6 +833,41 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -865,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -948,7 +987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1102,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1259,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1308,7 +1347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1376,7 +1415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1425,7 +1464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1457,46 +1496,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:Admin1@calpion.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="mailto:Admin1@calpion.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1539,6 +1538,46 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:Admin1@calpion.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="mailto:Admin1@calpion.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1780,7 +1819,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1855,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1832,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1860,16 +1899,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,18 @@
     <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId8"/>
     <sheet name="CarrierRegisterData" sheetId="6" r:id="rId9"/>
     <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId10"/>
-    <sheet name="BulkUploadPayments" sheetId="22" r:id="rId11"/>
-    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId12"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId13"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId14"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId15"/>
-    <sheet name="BrokerBankingData" sheetId="15" r:id="rId16"/>
-    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId17"/>
-    <sheet name="CarrierBankingData" sheetId="16" r:id="rId18"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId19"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId20"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId21"/>
+    <sheet name="BulkUploadPaymentsmatched" sheetId="22" r:id="rId11"/>
+    <sheet name="BulkUploadPaymentsUnmatched" sheetId="23" r:id="rId12"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId13"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId14"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId15"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId16"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId17"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId18"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId19"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId20"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId21"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -325,13 +326,13 @@
     <t>SearchAmount</t>
   </si>
   <si>
-    <t>carrier82@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>Abctb@123</t>
-  </si>
-  <si>
-    <t>Carrier113@0909</t>
+    <t>carrier820@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Abctlk@123</t>
+  </si>
+  <si>
+    <t>Carrier123@0909</t>
   </si>
 </sst>
 </file>
@@ -799,10 +800,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="4">
-        <v>82112</v>
+        <v>709812</v>
       </c>
       <c r="C2" s="4">
-        <v>82112</v>
+        <v>709812</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -813,10 +814,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="4">
-        <v>880909</v>
+        <v>7098332</v>
       </c>
       <c r="C3" s="4">
-        <v>880909</v>
+        <v>7098332</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -824,8 +825,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -837,7 +838,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,6 +869,41 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>500</v>
+      </c>
+      <c r="B2" s="4">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -904,7 +940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -987,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1141,7 +1177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1298,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1347,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1415,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1464,41 +1500,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
@@ -1542,6 +1543,41 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1577,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1773,7 +1809,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1855,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1871,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="7500" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,20 @@
     <sheet name="carrierresetpassworddata" sheetId="21" r:id="rId7"/>
     <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" r:id="rId8"/>
     <sheet name="CarrierRegisterData" sheetId="6" r:id="rId9"/>
-    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId10"/>
-    <sheet name="BulkUploadPaymentsmatched" sheetId="22" r:id="rId11"/>
-    <sheet name="BulkUploadPaymentsUnmatched" sheetId="23" r:id="rId12"/>
-    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId13"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId14"/>
-    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId15"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId16"/>
-    <sheet name="BrokerBankingData" sheetId="15" r:id="rId17"/>
-    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId18"/>
-    <sheet name="CarrierBankingData" sheetId="16" r:id="rId19"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId20"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId21"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId22"/>
+    <sheet name="BrokerUpdatePaymentData" sheetId="24" r:id="rId10"/>
+    <sheet name="BrokerNewPaymentData" sheetId="7" r:id="rId11"/>
+    <sheet name="BulkUploadPaymentsmatched" sheetId="22" r:id="rId12"/>
+    <sheet name="BulkUploadPaymentsUnmatched" sheetId="23" r:id="rId13"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" r:id="rId14"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" r:id="rId15"/>
+    <sheet name="BrokerRegisterCanada" sheetId="11" r:id="rId16"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" r:id="rId17"/>
+    <sheet name="BrokerBankingData" sheetId="15" r:id="rId18"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId19"/>
+    <sheet name="CarrierBankingData" sheetId="16" r:id="rId20"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId21"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId22"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="146">
   <si>
     <t>Username</t>
   </si>
@@ -245,9 +246,6 @@
     <t>Password@1</t>
   </si>
   <si>
-    <t>brokerregister16@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>brcanada1395@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -287,9 +285,6 @@
     <t>CVK Trucking</t>
   </si>
   <si>
-    <t>carrierregister30@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Wrong Password</t>
   </si>
   <si>
@@ -333,13 +328,175 @@
   </si>
   <si>
     <t>Carrier123@0909</t>
+  </si>
+  <si>
+    <t>CarrierDOT</t>
+  </si>
+  <si>
+    <t>ScheduleDate</t>
+  </si>
+  <si>
+    <t>PaymentAmount</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>InvoiceRecd</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>AdvancePayment</t>
+  </si>
+  <si>
+    <t>OriginCountry</t>
+  </si>
+  <si>
+    <t>OriginState</t>
+  </si>
+  <si>
+    <t>OriginCity</t>
+  </si>
+  <si>
+    <t>OriginZIP</t>
+  </si>
+  <si>
+    <t>DestinationCountry</t>
+  </si>
+  <si>
+    <t>DestinationState</t>
+  </si>
+  <si>
+    <t>DestinationCity</t>
+  </si>
+  <si>
+    <t>DestionationZIP</t>
+  </si>
+  <si>
+    <t>TrailerType</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>PickupDate</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>NumberOfStops</t>
+  </si>
+  <si>
+    <t>FuelSurcharge</t>
+  </si>
+  <si>
+    <t>unmatchedCVK06202018C@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>2468.15</t>
+  </si>
+  <si>
+    <t>60202018C</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Updated Memo</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Fox River Grove</t>
+  </si>
+  <si>
+    <t>60021</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>54304</t>
+  </si>
+  <si>
+    <t>Flatbed</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>updated commodity</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>carrier81@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrier82@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister94@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister45@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,6 +516,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,11 +589,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -452,8 +617,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -755,7 +923,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -767,6 +935,205 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="16">
+        <v>456789</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -797,13 +1164,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4">
-        <v>709812</v>
+        <v>709813</v>
       </c>
       <c r="C2" s="4">
-        <v>709812</v>
+        <v>709813</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -811,13 +1178,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4">
-        <v>7098332</v>
+        <v>709814</v>
       </c>
       <c r="C3" s="4">
-        <v>7098332</v>
+        <v>709814</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -833,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -849,10 +1216,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +1235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -884,10 +1251,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +1270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -940,7 +1307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -976,7 +1343,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
         <v>10041598</v>
@@ -996,7 +1363,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4">
         <v>10041599</v>
@@ -1023,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1114,10 +1481,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -1177,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1271,10 +1638,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -1334,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1383,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1409,33 +1776,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -1451,7 +1818,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1500,45 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1573,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1613,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1630,7 +1997,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1713,10 +2080,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -1789,7 +2156,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -1826,18 +2193,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1874,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,13 +2252,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1921,30 +2288,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2078,10 +2445,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="143">
   <si>
     <t>Username</t>
   </si>
@@ -255,12 +255,6 @@
     <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>unmatched99@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched90@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Search Payer</t>
   </si>
   <si>
@@ -408,18 +402,12 @@
     <t>FuelSurcharge</t>
   </si>
   <si>
-    <t>unmatchedCVK06202018C@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>07/24/2018</t>
   </si>
   <si>
     <t>2468.15</t>
   </si>
   <si>
-    <t>60202018C</t>
-  </si>
-  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -477,16 +465,19 @@
     <t>275</t>
   </si>
   <si>
-    <t>carrier81@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrier82@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>brokerregister94@loadpaytest.truckstop.com</t>
   </si>
   <si>
     <t>carrierregister45@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched80@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched81@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister99@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -938,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -955,90 +946,90 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>29</v>
@@ -1047,87 +1038,87 @@
         <v>456789</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7099</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7099</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="J2" s="16" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="Z2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="AB2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="unmatchedCVK06202018C@loadpaytest.truckstop.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1135,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1167,36 +1158,18 @@
         <v>142</v>
       </c>
       <c r="B2" s="4">
-        <v>709813</v>
+        <v>7099</v>
       </c>
       <c r="C2" s="4">
-        <v>709813</v>
+        <v>7099</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="4">
-        <v>709814</v>
-      </c>
-      <c r="C3" s="4">
-        <v>709814</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1216,10 +1189,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,10 +1224,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1285,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1343,13 +1316,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4">
-        <v>10041598</v>
+        <v>1004151</v>
       </c>
       <c r="C2" s="4">
-        <v>10041598</v>
+        <v>1004151</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1363,13 +1336,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="B3" s="4">
-        <v>10041599</v>
+        <v>1004152</v>
       </c>
       <c r="C3" s="4">
-        <v>10041599</v>
+        <v>1004152</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1776,33 +1749,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -2080,10 +2053,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -2156,7 +2129,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -2193,18 +2166,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2241,10 +2214,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,13 +2225,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2288,30 +2261,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2445,10 +2418,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Documents\Truckstop-RATE 5-4-2018\Truckstop-RATE\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,8 @@
     <sheet name="BrokerBankingData" sheetId="15" r:id="rId18"/>
     <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId19"/>
     <sheet name="CarrierBankingData" sheetId="16" r:id="rId20"/>
-    <sheet name="CarrierSchedulePaymentTabData" sheetId="25" r:id="rId21"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId22"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId21"/>
+    <sheet name="AdminSearchData" sheetId="25" r:id="rId22"/>
     <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId23"/>
     <sheet name="tasks" sheetId="3" state="hidden" r:id="rId24"/>
   </sheets>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="155">
   <si>
     <t>Username</t>
   </si>
@@ -256,12 +256,6 @@
     <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>unmatched99@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched90@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>Search Payer</t>
   </si>
   <si>
@@ -409,18 +403,12 @@
     <t>FuelSurcharge</t>
   </si>
   <si>
-    <t>unmatchedCVK06202018C@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>07/24/2018</t>
   </si>
   <si>
     <t>2468.15</t>
   </si>
   <si>
-    <t>60202018C</t>
-  </si>
-  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -478,25 +466,55 @@
     <t>275</t>
   </si>
   <si>
-    <t>carrier81@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrier82@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>brokerregister29@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister58@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>Search InvoiceNumber</t>
-  </si>
-  <si>
-    <t>Payer</t>
-  </si>
-  <si>
-    <t>broker registration</t>
+    <t>brokerregister94@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister45@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched80@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched81@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister99@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>PaymentID</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>FilterByAll</t>
+  </si>
+  <si>
+    <t>FilterByUnmatched</t>
+  </si>
+  <si>
+    <t>FilterByNotScheduled</t>
+  </si>
+  <si>
+    <t>FilterByScheduled</t>
+  </si>
+  <si>
+    <t>FilterByPaid</t>
+  </si>
+  <si>
+    <t>FilterByError</t>
+  </si>
+  <si>
+    <t>FilterByCanceled</t>
+  </si>
+  <si>
+    <t>AmountFrom</t>
+  </si>
+  <si>
+    <t>AmountTo</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -538,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,8 +581,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -598,13 +622,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -629,6 +698,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -948,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,90 +1037,90 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>29</v>
@@ -1057,87 +1129,87 @@
         <v>456789</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7099</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7099</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="J2" s="16" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="Z2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="AB2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="unmatchedCVK06202018C@loadpaytest.truckstop.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1145,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1177,36 +1249,18 @@
         <v>142</v>
       </c>
       <c r="B2" s="4">
-        <v>709813</v>
+        <v>7099</v>
       </c>
       <c r="C2" s="4">
-        <v>709813</v>
+        <v>7099</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="4">
-        <v>709814</v>
-      </c>
-      <c r="C3" s="4">
-        <v>709814</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1226,10 +1280,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,10 +1315,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1376,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1353,13 +1407,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4">
-        <v>10041598</v>
+        <v>1004151</v>
       </c>
       <c r="C2" s="4">
-        <v>10041598</v>
+        <v>1004151</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1373,13 +1427,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="B3" s="4">
-        <v>10041599</v>
+        <v>1004152</v>
       </c>
       <c r="C3" s="4">
-        <v>10041599</v>
+        <v>1004152</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1765,7 +1819,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1786,33 +1840,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -1917,72 +1971,6 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1132860</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1132860</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2009,6 +1997,78 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32922</v>
       </c>
     </row>
   </sheetData>
@@ -2156,10 +2216,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -2232,7 +2292,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -2269,18 +2329,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2317,10 +2377,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,13 +2388,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2364,30 +2424,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2521,10 +2581,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Documents\Truckstop-RATE 5-4-2018\Truckstop-RATE\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="BrokerBankingData" sheetId="15" r:id="rId18"/>
     <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId19"/>
     <sheet name="CarrierBankingData" sheetId="16" r:id="rId20"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId21"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId22"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId23"/>
+    <sheet name="CarrierSchedulePaymentTabData" sheetId="25" r:id="rId21"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId22"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId23"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="149">
   <si>
     <t>Username</t>
   </si>
@@ -255,6 +256,12 @@
     <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
   </si>
   <si>
+    <t>unmatched99@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched90@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
     <t>Search Payer</t>
   </si>
   <si>
@@ -402,12 +409,18 @@
     <t>FuelSurcharge</t>
   </si>
   <si>
+    <t>unmatchedCVK06202018C@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
     <t>07/24/2018</t>
   </si>
   <si>
     <t>2468.15</t>
   </si>
   <si>
+    <t>60202018C</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -465,19 +478,25 @@
     <t>275</t>
   </si>
   <si>
-    <t>brokerregister94@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister45@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched80@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched81@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister99@loadpaytest.truckstop.com</t>
+    <t>carrier81@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrier82@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister29@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister58@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Search InvoiceNumber</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>broker registration</t>
   </si>
 </sst>
 </file>
@@ -929,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -946,90 +965,90 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>29</v>
@@ -1038,87 +1057,87 @@
         <v>456789</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7099</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7099</v>
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J2" s="16" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="unmatchedCVK06202018C@loadpaytest.truckstop.com"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1126,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1158,18 +1177,36 @@
         <v>142</v>
       </c>
       <c r="B2" s="4">
-        <v>7099</v>
+        <v>709813</v>
       </c>
       <c r="C2" s="4">
-        <v>7099</v>
+        <v>709813</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4">
+        <v>709814</v>
+      </c>
+      <c r="C3" s="4">
+        <v>709814</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1189,10 +1226,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,10 +1261,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1322,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1316,13 +1353,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
-        <v>1004151</v>
+        <v>10041598</v>
       </c>
       <c r="C2" s="4">
-        <v>1004151</v>
+        <v>10041598</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1336,13 +1373,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4">
-        <v>1004152</v>
+        <v>10041599</v>
       </c>
       <c r="C3" s="4">
-        <v>1004152</v>
+        <v>10041599</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1728,7 +1765,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1749,33 +1786,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -1880,6 +1917,72 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1132860</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1132860</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1913,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1953,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2053,10 +2156,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -2129,7 +2232,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -2166,18 +2269,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2214,10 +2317,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,13 +2328,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2261,30 +2364,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2521,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Documents\Truckstop-RATE 5-4-2018\Truckstop-RATE\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,8 @@
     <sheet name="BrokerBankingData" sheetId="15" r:id="rId18"/>
     <sheet name="CarrierPaidTabData" sheetId="17" r:id="rId19"/>
     <sheet name="CarrierBankingData" sheetId="16" r:id="rId20"/>
-    <sheet name="AdminLogin" sheetId="9" r:id="rId21"/>
-    <sheet name="AdminSearchData" sheetId="25" r:id="rId22"/>
+    <sheet name="CarrierSchedulePaymentTabData" sheetId="25" r:id="rId21"/>
+    <sheet name="AdminLogin" sheetId="9" r:id="rId22"/>
     <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId23"/>
     <sheet name="tasks" sheetId="3" state="hidden" r:id="rId24"/>
   </sheets>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="150">
   <si>
     <t>Username</t>
   </si>
@@ -256,6 +256,12 @@
     <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
   </si>
   <si>
+    <t>unmatched99@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>unmatched90@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
     <t>Search Payer</t>
   </si>
   <si>
@@ -403,12 +409,18 @@
     <t>FuelSurcharge</t>
   </si>
   <si>
+    <t>unmatchedCVK06202018C@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
     <t>07/24/2018</t>
   </si>
   <si>
     <t>2468.15</t>
   </si>
   <si>
+    <t>60202018C</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -466,55 +478,28 @@
     <t>275</t>
   </si>
   <si>
-    <t>brokerregister94@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrierregister45@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched80@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>unmatched81@loadpaytest.truckstop.com</t>
+    <t>carrier81@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrier82@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>brokerregister29@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>carrierregister58@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Search InvoiceNumber</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>broker registration</t>
   </si>
   <si>
     <t>carrierregister99@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>PaymentID</t>
-  </si>
-  <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>ToDate</t>
-  </si>
-  <si>
-    <t>FilterByAll</t>
-  </si>
-  <si>
-    <t>FilterByUnmatched</t>
-  </si>
-  <si>
-    <t>FilterByNotScheduled</t>
-  </si>
-  <si>
-    <t>FilterByScheduled</t>
-  </si>
-  <si>
-    <t>FilterByPaid</t>
-  </si>
-  <si>
-    <t>FilterByError</t>
-  </si>
-  <si>
-    <t>FilterByCanceled</t>
-  </si>
-  <si>
-    <t>AmountFrom</t>
-  </si>
-  <si>
-    <t>AmountTo</t>
   </si>
 </sst>
 </file>
@@ -522,7 +507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -556,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,14 +566,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -622,58 +601,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -698,9 +632,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1020,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1037,90 +968,90 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>29</v>
@@ -1129,87 +1060,87 @@
         <v>456789</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7099</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7099</v>
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J2" s="16" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="unmatchedCVK06202018C@loadpaytest.truckstop.com"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1217,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1249,18 +1180,36 @@
         <v>142</v>
       </c>
       <c r="B2" s="4">
-        <v>7099</v>
+        <v>709813</v>
       </c>
       <c r="C2" s="4">
-        <v>7099</v>
+        <v>709813</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4">
+        <v>709814</v>
+      </c>
+      <c r="C3" s="4">
+        <v>709814</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1280,10 +1229,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,10 +1264,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1325,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1407,13 +1356,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
-        <v>1004151</v>
+        <v>10041598</v>
       </c>
       <c r="C2" s="4">
-        <v>1004151</v>
+        <v>10041598</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -1427,13 +1376,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4">
-        <v>1004152</v>
+        <v>10041599</v>
       </c>
       <c r="C3" s="4">
-        <v>1004152</v>
+        <v>10041599</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -1819,7 +1768,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1840,33 +1789,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -1971,6 +1920,72 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1132860</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1132860</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1997,78 +2012,6 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>32922</v>
       </c>
     </row>
   </sheetData>
@@ -2216,10 +2159,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -2292,7 +2235,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -2311,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2329,25 +2272,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2377,10 +2318,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,13 +2329,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2424,30 +2365,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2581,10 +2522,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Documents\Truckstop-RATE 5-4-2018\Truckstop-RATE\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="4020" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <t>broker registration</t>
   </si>
   <si>
-    <t>carrierregister99@loadpaytest.truckstop.com</t>
+    <t>carrierregister98@loadpaytest.truckstop.com</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2255,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="4020" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="4020" tabRatio="500" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,9 @@
     <sheet name="CarrierBankingData" sheetId="16" r:id="rId20"/>
     <sheet name="CarrierSchedulePaymentTabData" sheetId="25" r:id="rId21"/>
     <sheet name="AdminLogin" sheetId="9" r:id="rId22"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId23"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId24"/>
+    <sheet name="AdminSearchData" sheetId="26" r:id="rId23"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId24"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="166">
   <si>
     <t>Username</t>
   </si>
@@ -500,6 +501,54 @@
   </si>
   <si>
     <t>carrierregister98@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>PaymentID</t>
+  </si>
+  <si>
+    <t>InvoiceAmountFrom</t>
+  </si>
+  <si>
+    <t>InvoiceAmountTo</t>
+  </si>
+  <si>
+    <t>InvoiceDateFrom</t>
+  </si>
+  <si>
+    <t>InvoiceDateTo</t>
+  </si>
+  <si>
+    <t>FilterByAll</t>
+  </si>
+  <si>
+    <t>FilterByUnmatched</t>
+  </si>
+  <si>
+    <t>FilterByNotScheduled</t>
+  </si>
+  <si>
+    <t>FilterByScheduled</t>
+  </si>
+  <si>
+    <t>FilterByPaid</t>
+  </si>
+  <si>
+    <t>FilterByError</t>
+  </si>
+  <si>
+    <t>FilterByCanceled</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
   </si>
 </sst>
 </file>
@@ -507,7 +556,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -541,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +615,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -601,13 +662,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -632,6 +826,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2021,6 +2231,544 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>32002</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="18">
+        <v>100</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>33343</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>33310</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>33558</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>33280</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>33307</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>8140</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2059,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2254,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="4020" tabRatio="500" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="4020" tabRatio="500" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="164">
   <si>
     <t>Username</t>
   </si>
@@ -477,12 +477,6 @@
   </si>
   <si>
     <t>275</t>
-  </si>
-  <si>
-    <t>carrier81@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
-    <t>carrier82@loadpaytest.truckstop.com</t>
   </si>
   <si>
     <t>brokerregister29@loadpaytest.truckstop.com</t>
@@ -1358,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1387,39 +1381,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4">
-        <v>709813</v>
+        <v>709812</v>
       </c>
       <c r="C2" s="4">
-        <v>709813</v>
+        <v>709812</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="4">
-        <v>709814</v>
-      </c>
-      <c r="C3" s="4">
-        <v>709814</v>
-      </c>
-      <c r="D3" s="4">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2154,7 +2133,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>74</v>
@@ -2163,7 +2142,7 @@
         <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,7 +2153,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -2233,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2255,40 +2234,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2300,25 +2279,25 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2332,25 +2311,25 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2358,31 +2337,31 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2392,25 +2371,25 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2420,25 +2399,25 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2448,25 +2427,25 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2476,25 +2455,25 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2504,25 +2483,25 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,25 +2511,25 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2560,25 +2539,25 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2590,25 +2569,25 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,25 +2599,25 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2650,25 +2629,25 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2680,25 +2659,25 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2710,25 +2689,25 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2740,25 +2719,25 @@
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2907,10 +2886,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -3025,7 +3004,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -3270,10 +3249,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\AutomationSelenium\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -550,7 +550,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -793,7 +793,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1384,10 +1384,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="4">
-        <v>709812</v>
+        <v>709817</v>
       </c>
       <c r="C2" s="4">
-        <v>709812</v>
+        <v>709817</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\SeleniumAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AUTOMATION\SELENIUM\_Project\testing\SeleniumAutomation\LoadPay-Truckstop\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="4020" tabRatio="500" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12972" windowHeight="4020" tabRatio="500" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,10 @@
     <sheet name="CarrierSchedulePaymentTabData" sheetId="25" r:id="rId21"/>
     <sheet name="AdminLogin" sheetId="9" r:id="rId22"/>
     <sheet name="AdminSearchData" sheetId="26" r:id="rId23"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId24"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId25"/>
+    <sheet name="BrokerChangePasswordData" sheetId="27" r:id="rId24"/>
+    <sheet name="BrokerForgotPassword" sheetId="28" r:id="rId25"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId26"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="173">
   <si>
     <t>Username</t>
   </si>
@@ -543,6 +545,33 @@
   </si>
   <si>
     <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>ConfirmNewPassword</t>
+  </si>
+  <si>
+    <t>yuriibrokerstage@loadpaytest.truckstop.com</t>
+  </si>
+  <si>
+    <t>Password@7</t>
+  </si>
+  <si>
+    <t>Password@12</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuriibrokerstage@loadpaytest.truckstop.com </t>
   </si>
 </sst>
 </file>
@@ -550,9 +579,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,8 +612,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +663,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -790,12 +837,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -836,9 +884,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1124,13 +1176,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1159,12 +1211,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -1253,7 +1305,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
@@ -1354,18 +1406,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1410,13 +1462,13 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -1424,7 +1476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -1445,13 +1497,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -1459,7 +1511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>500</v>
       </c>
@@ -1480,15 +1532,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -1496,7 +1548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -1517,13 +1569,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -1563,7 +1615,7 @@
         <v>295676689</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -1600,16 +1652,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.19921875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -1754,19 +1806,19 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>48</v>
@@ -1911,15 +1963,15 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -1933,7 +1985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1960,17 +2012,17 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -1990,7 +2042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>76</v>
       </c>
@@ -2028,13 +2080,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2066,15 +2118,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -2088,7 +2140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -2115,17 +2167,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -2145,7 +2197,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
@@ -2181,13 +2233,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2216,23 +2268,23 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>148</v>
       </c>
@@ -2270,7 +2322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>32002</v>
       </c>
@@ -2300,7 +2352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="18">
         <v>100</v>
@@ -2332,7 +2384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2364,7 +2416,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2392,7 +2444,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2420,7 +2472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2448,7 +2500,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2476,7 +2528,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2504,7 +2556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2532,7 +2584,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2560,7 +2612,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>33343</v>
       </c>
@@ -2590,7 +2642,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>33310</v>
       </c>
@@ -2620,7 +2672,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>33558</v>
       </c>
@@ -2650,7 +2702,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>33280</v>
       </c>
@@ -2680,7 +2732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>33307</v>
       </c>
@@ -2710,7 +2762,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>8140</v>
       </c>
@@ -2748,19 +2800,131 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.296875" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="25.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2786,13 +2950,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2806,26 +2970,26 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" customWidth="1"/>
+    <col min="5" max="5" width="36.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.69921875" customWidth="1"/>
+    <col min="14" max="14" width="15.8984375" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" customWidth="1"/>
+    <col min="16" max="16" width="16.19921875" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +3042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2946,13 +3110,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -2960,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -2985,13 +3149,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3002,7 +3166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
@@ -3029,15 +3193,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3051,7 +3215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -3082,15 +3246,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -3104,7 +3268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -3137,13 +3301,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>50</v>
       </c>
@@ -3151,7 +3315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>6542988</v>
       </c>
@@ -3173,22 +3337,22 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="35.8984375" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="11" max="12" width="14.625" customWidth="1"/>
+    <col min="11" max="12" width="14.59765625" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="13.69921875" customWidth="1"/>
+    <col min="16" max="16" width="12.59765625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>29</v>
       </c>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12972" windowHeight="4020" tabRatio="500" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12972" windowHeight="4020" tabRatio="1000" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="171">
   <si>
     <t>Username</t>
   </si>
@@ -256,9 +256,6 @@
     <t>crcanada1416@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>brokerregisterstage1@loadpaytest.truckstop.com</t>
-  </si>
-  <si>
     <t>unmatched99@loadpaytest.truckstop.com</t>
   </si>
   <si>
@@ -562,16 +559,13 @@
     <t>yuriibrokerstage@loadpaytest.truckstop.com</t>
   </si>
   <si>
-    <t>Password@7</t>
-  </si>
-  <si>
-    <t>Password@12</t>
-  </si>
-  <si>
     <t>EmailAddress</t>
   </si>
   <si>
     <t xml:space="preserve">yuriibrokerstage@loadpaytest.truckstop.com </t>
+  </si>
+  <si>
+    <t>Password@3</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1167,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1192,13 +1186,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1224,90 +1222,90 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>29</v>
@@ -1316,82 +1314,82 @@
         <v>456789</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="J2" s="16" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Z2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="Z2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AB2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1431,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4">
         <v>709817</v>
@@ -1470,10 +1468,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1505,10 +1503,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1597,7 +1595,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4">
         <v>10041598</v>
@@ -1617,7 +1615,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4">
         <v>10041599</v>
@@ -2030,33 +2028,33 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4">
         <v>123.45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4">
         <v>61420181</v>
@@ -2185,27 +2183,27 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
@@ -2286,40 +2284,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2331,25 +2329,25 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2363,25 +2361,25 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2389,31 +2387,31 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>163</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2423,25 +2421,25 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2451,25 +2449,25 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2479,25 +2477,25 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2507,25 +2505,25 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2535,25 +2533,25 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2563,25 +2561,25 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="L10" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2591,25 +2589,25 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2621,25 +2619,25 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>161</v>
-      </c>
       <c r="H12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2651,25 +2649,25 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2681,25 +2679,25 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2711,25 +2709,25 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2741,25 +2739,25 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="L16" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2771,25 +2769,25 @@
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2802,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2816,24 +2814,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>170</v>
@@ -2858,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2875,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>15</v>
@@ -2886,16 +2884,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3048,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>
@@ -3126,7 +3124,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -3163,18 +3161,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3209,10 +3207,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3220,13 +3218,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3256,30 +3254,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3413,10 +3411,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>22</v>

--- a/src/main/java/testdata/TestData.xlsx
+++ b/src/main/java/testdata/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12972" windowHeight="4020" tabRatio="1000" firstSheet="15" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12972" windowHeight="4020" tabRatio="1000" firstSheet="15" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerLoginData" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="172">
   <si>
     <t>Username</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Password@3</t>
+  </si>
+  <si>
+    <t>Password@8</t>
   </si>
 </sst>
 </file>
@@ -2800,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2856,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2890,10 +2893,10 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
